--- a/kvision/ksample/mytable/result/004_d10ce.xlsx
+++ b/kvision/ksample/mytable/result/004_d10ce.xlsx
@@ -35,13 +35,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -50,9 +64,12 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -433,59 +450,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>2016 2017</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>2018E 2019E 2020E 营业收入（百万元） 119 126 128 141 161</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>增长率(%) 7% 7% 1% 11% 14%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>净利润 (百万元) 36 44 53 60 76</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>&lt; 增长率(%) -120% 21% 21% 15% 26%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>每股收益（EPS） 0.10 0.12 0.15 0.17 0.21</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>市盈率（P/E） 23.9 19.7 16.5 14.4 11.5</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr"/>
+      <c r="A8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>市净率（P/B) 4.7 3.75 N 3.0 2.5 2.1</t>
         </is>

--- a/kvision/ksample/mytable/result/004_d10ce.xlsx
+++ b/kvision/ksample/mytable/result/004_d10ce.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -57,6 +57,20 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -64,12 +78,15 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -450,59 +467,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>2016 2017</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>2018E 2019E 2020E 营业收入（百万元） 119 126 128 141 161</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>增长率(%) 7% 7% 1% 11% 14%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>净利润 (百万元) 36 44 53 60 76</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>&lt; 增长率(%) -120% 21% 21% 15% 26%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>每股收益（EPS） 0.10 0.12 0.15 0.17 0.21</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>市盈率（P/E） 23.9 19.7 16.5 14.4 11.5</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr"/>
+      <c r="A8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>市净率（P/B) 4.7 3.75 N 3.0 2.5 2.1</t>
         </is>

--- a/kvision/ksample/mytable/result/004_d10ce.xlsx
+++ b/kvision/ksample/mytable/result/004_d10ce.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -71,6 +71,20 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -78,7 +92,7 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
@@ -87,6 +101,9 @@
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -467,59 +484,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>2016 2017</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>2018E 2019E 2020E 营业收入（百万元） 119 126 128 141 161</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>增长率(%) 7% 7% 1% 11% 14%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>净利润 (百万元) 36 44 53 60 76</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>&lt; 增长率(%) -120% 21% 21% 15% 26%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>每股收益（EPS） 0.10 0.12 0.15 0.17 0.21</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>市盈率（P/E） 23.9 19.7 16.5 14.4 11.5</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr"/>
+      <c r="A8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>市净率（P/B) 4.7 3.75 N 3.0 2.5 2.1</t>
         </is>
